--- a/data/wang2020fecal/A data.xlsx
+++ b/data/wang2020fecal/A data.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>patients</t>
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>ctvalue</t>
   </si>
   <si>
     <t>A</t>
@@ -1216,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1226,17 +1229,20 @@
     <col min="3" max="3" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>9.95433789954337</v>
@@ -1247,7 +1253,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>13.9497716894977</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>18.1050228310502</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>20.1826484018264</v>
@@ -1280,7 +1286,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>15.0684931506849</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>19.2237442922374</v>
@@ -1302,7 +1308,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>21.9406392694063</v>
@@ -1313,18 +1319,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>25.1369863013698</v>
       </c>
       <c r="C9">
-        <v>39.8958333333333</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>18.9041095890411</v>
@@ -1335,7 +1341,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>30.0913242009132</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>32.1689497716895</v>
@@ -1357,7 +1363,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>34.0867579908675</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>36.324200913242</v>
@@ -1379,7 +1385,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>8.03652968036529</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>16.0273972602739</v>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>19.8630136986301</v>
@@ -1412,7 +1418,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>14.9086757990867</v>
@@ -1423,7 +1429,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>18.1050228310502</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>22.2602739726027</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>28.3333333333333</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>17.945205479452</v>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>20.0228310502283</v>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>24.337899543379</v>
@@ -1489,7 +1495,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>12.8310502283105</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>16.986301369863</v>
@@ -1511,7 +1517,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>19.0639269406392</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>24.9771689497716</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>32.1689497716895</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>34.0867579908675</v>
@@ -1555,7 +1561,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>36.8036529680365</v>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>38.0821917808219</v>
@@ -1577,7 +1583,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>40.1598173515981</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>40.958904109589</v>
@@ -1599,7 +1605,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>44.1552511415525</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>14.9086757990867</v>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>16.986301369863</v>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>18.9041095890411</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>22.8995433789954</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>28.972602739726</v>
@@ -1665,7 +1671,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>31.0502283105022</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>35.0456621004566</v>
@@ -1687,7 +1693,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>36.0045662100456</v>
@@ -1698,7 +1704,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>37.9223744292237</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>39.0410958904109</v>
@@ -1720,7 +1726,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>41.1187214611872</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>42.2374429223744</v>
@@ -1742,7 +1748,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>44.1552511415525</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>46.2328767123287</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>48.9497716894977</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>50.0684931506849</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>20.8219178082191</v>
@@ -1797,7 +1803,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>23.8584474885844</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>27.0547945205479</v>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>29.1324200913242</v>
@@ -1830,7 +1836,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>16.6666666666666</v>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>24.0182648401826</v>

--- a/data/wang2020fecal/A data.xlsx
+++ b/data/wang2020fecal/A data.xlsx
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13.9497716894977</v>
+        <v>14.0497716894977</v>
       </c>
       <c r="C3">
         <v>34.6875</v>

--- a/data/wang2020fecal/A data.xlsx
+++ b/data/wang2020fecal/A data.xlsx
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>21.9406392694063</v>
+        <v>22.0406392694063</v>
       </c>
       <c r="C8">
         <v>27.8125</v>

--- a/data/wang2020fecal/A data.xlsx
+++ b/data/wang2020fecal/A data.xlsx
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.0684931506849</v>
+        <v>15.0486111111111</v>
       </c>
       <c r="C6">
-        <v>39.4791666666666</v>
+        <v>39.5833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1300,10 +1300,10 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>19.2237442922374</v>
+        <v>19.0801005747126</v>
       </c>
       <c r="C7">
-        <v>27.2916666666666</v>
+        <v>26.875</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>22.0406392694063</v>
+        <v>21.92031848659</v>
       </c>
       <c r="C8">
-        <v>27.8125</v>
+        <v>27.6041666666666</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>25.1369863013698</v>
+        <v>25.0028735632183</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1663,10 +1663,10 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>28.972602739726</v>
+        <v>28.9994612068965</v>
       </c>
       <c r="C40">
-        <v>33.0208333333333</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1674,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>31.0502283105022</v>
+        <v>30.9025981800766</v>
       </c>
       <c r="C41">
-        <v>31.9791666666666</v>
+        <v>31.7708333333333</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1685,10 +1685,10 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>35.0456621004566</v>
+        <v>35.0098180076628</v>
       </c>
       <c r="C42">
-        <v>32.3958333333333</v>
+        <v>32.0833333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1696,10 +1696,10 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>36.0045662100456</v>
+        <v>35.8046575670498</v>
       </c>
       <c r="C43">
-        <v>31.5625</v>
+        <v>31.3541666666666</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>37.9223744292237</v>
+        <v>37.8348898467432</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>35.2083333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1718,10 +1718,10 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>39.0410958904109</v>
+        <v>38.9649185823754</v>
       </c>
       <c r="C45">
-        <v>31.5625</v>
+        <v>31.4583333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1729,10 +1729,10 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>41.1187214611872</v>
+        <v>40.8700311302682</v>
       </c>
       <c r="C46">
-        <v>30.3125</v>
+        <v>30.1041666666666</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1740,10 +1740,10 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>42.2374429223744</v>
+        <v>41.9612068965517</v>
       </c>
       <c r="C47">
-        <v>32.6041666666666</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1751,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>44.1552511415525</v>
+        <v>43.8399784482758</v>
       </c>
       <c r="C48">
-        <v>35.4166666666666</v>
+        <v>35.3125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1762,10 +1762,10 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>46.2328767123287</v>
+        <v>45.8767959770115</v>
       </c>
       <c r="C49">
-        <v>38.4375</v>
+        <v>38.125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>48.9497716894977</v>
+        <v>48.8671575670498</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>40.1041666666666</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1784,10 +1784,10 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>50.0684931506849</v>
+        <v>49.8160919540229</v>
       </c>
       <c r="C51">
-        <v>40.1041666666666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3">

--- a/data/wang2020fecal/A data.xlsx
+++ b/data/wang2020fecal/A data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuke\stat\shedding-hub\data\wang2020fecal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFBBE88-41D8-4E9F-B94A-EFB317C4304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12860"/>
+    <workbookView xWindow="5770" yWindow="0" windowWidth="12040" windowHeight="15230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,362 +80,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -437,251 +109,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -689,93 +119,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -786,7 +285,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -814,154 +313,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,22 +596,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.2980769230769" customWidth="1"/>
-    <col min="3" max="3" width="12.9230769230769"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1245,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>9.95433789954337</v>
+        <v>9.9543378995433702</v>
       </c>
       <c r="C2">
         <v>31.3541666666666</v>
@@ -1267,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.1050228310502</v>
+        <v>18.105022831050199</v>
       </c>
       <c r="C4">
         <v>39.375</v>
@@ -1278,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.1826484018264</v>
+        <v>20.182648401826398</v>
       </c>
       <c r="C5">
         <v>40.1041666666666</v>
@@ -1300,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>19.0801005747126</v>
+        <v>19.080100574712599</v>
       </c>
       <c r="C7">
         <v>26.875</v>
@@ -1311,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>21.92031848659</v>
+        <v>21.920318486589998</v>
       </c>
       <c r="C8">
         <v>27.6041666666666</v>
@@ -1322,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>25.0028735632183</v>
+        <v>25.002873563218301</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1333,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>18.9041095890411</v>
+        <v>18.904109589041099</v>
       </c>
       <c r="C10">
         <v>32.9166666666666</v>
@@ -1344,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>30.0913242009132</v>
+        <v>30.091324200913199</v>
       </c>
       <c r="C11">
         <v>38.9583333333333</v>
@@ -1355,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>32.1689497716895</v>
+        <v>32.168949771689498</v>
       </c>
       <c r="C12">
         <v>37.6041666666666</v>
@@ -1366,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>34.0867579908675</v>
+        <v>34.086757990867497</v>
       </c>
       <c r="C13">
         <v>35.5208333333333</v>
@@ -1377,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>36.324200913242</v>
+        <v>36.324200913242002</v>
       </c>
       <c r="C14">
         <v>40.1041666666666</v>
@@ -1388,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>8.03652968036529</v>
+        <v>8.0365296803652893</v>
       </c>
       <c r="C15">
         <v>24.6875</v>
@@ -1399,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>16.0273972602739</v>
+        <v>16.027397260273901</v>
       </c>
       <c r="C16">
         <v>34.0625</v>
@@ -1410,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>19.8630136986301</v>
+        <v>19.863013698630098</v>
       </c>
       <c r="C17">
         <v>40.1041666666666</v>
@@ -1432,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>18.1050228310502</v>
+        <v>18.105022831050199</v>
       </c>
       <c r="C19">
         <v>33.75</v>
@@ -1476,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>20.0228310502283</v>
+        <v>20.022831050228302</v>
       </c>
       <c r="C23">
         <v>31.875</v>
@@ -1487,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>24.337899543379</v>
+        <v>24.337899543378999</v>
       </c>
       <c r="C24">
         <v>40.2083333333333</v>
@@ -1498,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>12.8310502283105</v>
+        <v>12.831050228310501</v>
       </c>
       <c r="C25">
         <v>27.0833333333333</v>
@@ -1520,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>19.0639269406392</v>
+        <v>19.063926940639199</v>
       </c>
       <c r="C27">
         <v>31.7708333333333</v>
@@ -1531,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>24.9771689497716</v>
+        <v>24.977168949771599</v>
       </c>
       <c r="C28">
         <v>33.6458333333333</v>
@@ -1542,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>32.1689497716895</v>
+        <v>32.168949771689498</v>
       </c>
       <c r="C29">
         <v>32.8125</v>
@@ -1553,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>34.0867579908675</v>
+        <v>34.086757990867497</v>
       </c>
       <c r="C30">
         <v>35.4166666666666</v>
@@ -1564,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>36.8036529680365</v>
+        <v>36.803652968036502</v>
       </c>
       <c r="C31">
         <v>35.625</v>
@@ -1575,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>38.0821917808219</v>
+        <v>38.082191780821901</v>
       </c>
       <c r="C32">
         <v>35</v>
@@ -1608,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>44.1552511415525</v>
+        <v>44.155251141552498</v>
       </c>
       <c r="C35">
         <v>40.1041666666666</v>
@@ -1641,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>18.9041095890411</v>
+        <v>18.904109589041099</v>
       </c>
       <c r="C38">
         <v>32.2916666666666</v>
@@ -1663,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>28.9994612068965</v>
+        <v>28.999461206896498</v>
       </c>
       <c r="C40">
         <v>32.8125</v>
@@ -1674,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>30.9025981800766</v>
+        <v>30.902598180076598</v>
       </c>
       <c r="C41">
         <v>31.7708333333333</v>
@@ -1685,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>35.0098180076628</v>
+        <v>35.009818007662801</v>
       </c>
       <c r="C42">
         <v>32.0833333333333</v>
@@ -1696,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>35.8046575670498</v>
+        <v>35.804657567049802</v>
       </c>
       <c r="C43">
         <v>31.3541666666666</v>
@@ -1707,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>37.8348898467432</v>
+        <v>37.834889846743202</v>
       </c>
       <c r="C44">
         <v>35.2083333333333</v>
@@ -1718,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>38.9649185823754</v>
+        <v>38.964918582375397</v>
       </c>
       <c r="C45">
         <v>31.4583333333333</v>
@@ -1729,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>40.8700311302682</v>
+        <v>40.870031130268202</v>
       </c>
       <c r="C46">
         <v>30.1041666666666</v>
@@ -1740,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>41.9612068965517</v>
+        <v>41.961206896551701</v>
       </c>
       <c r="C47">
         <v>32.5</v>
@@ -1751,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>43.8399784482758</v>
+        <v>43.839978448275801</v>
       </c>
       <c r="C48">
         <v>35.3125</v>
@@ -1762,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>45.8767959770115</v>
+        <v>45.876795977011497</v>
       </c>
       <c r="C49">
         <v>38.125</v>
@@ -1773,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>48.8671575670498</v>
+        <v>48.867157567049802</v>
       </c>
       <c r="C50">
         <v>40.1041666666666</v>
@@ -1784,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>49.8160919540229</v>
+        <v>49.816091954022902</v>
       </c>
       <c r="C51">
         <v>40</v>
@@ -1795,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>20.8219178082191</v>
+        <v>20.821917808219101</v>
       </c>
       <c r="C52">
         <v>32.2916666666666</v>
@@ -1817,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>27.0547945205479</v>
+        <v>27.054794520547901</v>
       </c>
       <c r="C54">
         <v>31.0416666666666</v>
@@ -1850,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>24.0182648401826</v>
+        <v>24.018264840182599</v>
       </c>
       <c r="C57">
         <v>40.1041666666666</v>
@@ -1858,6 +1243,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>